--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308142.9842452045</v>
+        <v>297923.7117000266</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13813742.31419702</v>
+        <v>13813742.31419701</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5170905.252723956</v>
+        <v>5170905.252723957</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W12" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>107.3621491644611</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.60633383892367</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.75581532553741</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T13" t="n">
-        <v>121.8916316581076</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>29.90726690215362</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X17" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="18">
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>109.9158126618163</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X19" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y20" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.8916316581077</v>
+        <v>111.161384142048</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>111.1613841420476</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X21" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="22">
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U22" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V22" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>13.60633383892398</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.1783618148989</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>99.84101104803869</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7776126296693</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V23" t="n">
-        <v>309.4214829327169</v>
+        <v>162.2206806945401</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>45.63393463176133</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2493,7 +2493,7 @@
         <v>165.2918606802396</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>227.8942544023992</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5146046033557</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.6685088681914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>291.6263286776431</v>
       </c>
       <c r="I26" t="n">
-        <v>26.97247904985709</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>99.84101104803869</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7776126296693</v>
+        <v>85.5571023311219</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>326.993969826532</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>105.2298201210638</v>
+        <v>36.79100943051886</v>
       </c>
       <c r="T27" t="n">
-        <v>100.6228431244806</v>
+        <v>169.0616538150257</v>
       </c>
       <c r="U27" t="n">
         <v>207.8620931743026</v>
@@ -2715,25 +2715,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I28" t="n">
-        <v>41.53014316202118</v>
+        <v>92.03453095523385</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.12414163960315</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>227.8942544023992</v>
       </c>
       <c r="U28" t="n">
         <v>282.5146046033557</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>26.36444313982256</v>
       </c>
       <c r="H29" t="n">
-        <v>255.4716162296112</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>99.84101104803869</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U29" t="n">
         <v>252.9669809783891</v>
@@ -2854,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>105.2298201210638</v>
       </c>
       <c r="T30" t="n">
-        <v>169.0616538150257</v>
+        <v>100.6228431244806</v>
       </c>
       <c r="U30" t="n">
         <v>207.8620931743026</v>
@@ -2939,7 +2939,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>109.0822640647028</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H31" t="n">
         <v>142.5464898706615</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.12414163960315</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.4870667059124</v>
+        <v>134.5824514659057</v>
       </c>
       <c r="T31" t="n">
         <v>227.8942544023992</v>
@@ -3018,7 +3018,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5674196703611</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>348.7187021929858</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>406.1783618148989</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>26.97247904985709</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>99.84101104803869</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.7776126296693</v>
       </c>
       <c r="U32" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>343.6473790098548</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -3204,10 +3204,10 @@
         <v>165.2918606802396</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I34" t="n">
-        <v>93.28083502046273</v>
+        <v>52.64724846263781</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.12414163960315</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.8942544023992</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>104.8796896847368</v>
+        <v>282.5146046033557</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.624036465399653</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3283,10 +3283,10 @@
         <v>406.1783618148989</v>
       </c>
       <c r="H35" t="n">
-        <v>291.6263286776431</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>26.97247904985709</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>99.84101104803869</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.7776126296693</v>
       </c>
       <c r="U35" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>338.345095015811</v>
       </c>
     </row>
     <row r="36">
@@ -3353,13 +3353,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>66.64321528967614</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>48.89404460791035</v>
+        <v>117.3328552984554</v>
       </c>
       <c r="H36" t="n">
         <v>72.6729750433953</v>
@@ -3444,7 +3444,7 @@
         <v>142.5464898706615</v>
       </c>
       <c r="I37" t="n">
-        <v>93.28083502046273</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.12414163960315</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>227.8942544023992</v>
+        <v>153.4087027699483</v>
       </c>
       <c r="U37" t="n">
         <v>282.5146046033557</v>
       </c>
       <c r="V37" t="n">
-        <v>132.4390547770894</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>350.2109519589077</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>406.1783618148989</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>26.97247904985709</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>161.5646286292062</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3596,10 +3596,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>48.89404460790993</v>
+        <v>117.3328552984554</v>
       </c>
       <c r="H39" t="n">
-        <v>72.6729750433953</v>
+        <v>4.234164352850279</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9538124316211642</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.12414163960315</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>227.8942544023992</v>
+        <v>11.83779982891073</v>
       </c>
       <c r="U40" t="n">
         <v>282.5146046033557</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>191.6317461550158</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>99.84101104803869</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7776126296693</v>
+        <v>96.79284860610939</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>36.79100943051886</v>
+        <v>105.2298201210638</v>
       </c>
       <c r="T42" t="n">
         <v>169.0616538150257</v>
@@ -3881,7 +3881,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>159.3772627175008</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.23296896949943</v>
+        <v>118.165059822979</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.12414163960315</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>227.8942544023992</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>99.84101104803871</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7776126296693</v>
+        <v>100.0749041126152</v>
       </c>
       <c r="U44" t="n">
-        <v>187.9460786891897</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>105.2298201210638</v>
+        <v>36.79100943051841</v>
       </c>
       <c r="T45" t="n">
         <v>169.0616538150257</v>
@@ -4121,7 +4121,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>118.9751961829424</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4140,22 +4140,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>93.28083502046275</v>
+        <v>66.07795407122427</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>227.8942544023992</v>
       </c>
       <c r="U46" t="n">
         <v>282.5146046033557</v>
@@ -4200,10 +4200,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.6743576201466</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C11" t="n">
-        <v>9.751330532648609</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D11" t="n">
-        <v>9.751330532648609</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="E11" t="n">
-        <v>9.751330532648609</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F11" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G11" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H11" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J11" t="n">
-        <v>13.67191254441006</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388276</v>
+        <v>52.52788553388307</v>
       </c>
       <c r="L11" t="n">
-        <v>124.7183011151463</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M11" t="n">
-        <v>225.6291823919087</v>
+        <v>225.6291823919089</v>
       </c>
       <c r="N11" t="n">
-        <v>331.1718826730482</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990619</v>
+        <v>422.1649418990626</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913161</v>
+        <v>477.399762191317</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324315</v>
       </c>
       <c r="R11" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S11" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T11" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U11" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V11" t="n">
-        <v>487.5665266324305</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="W11" t="n">
-        <v>487.5665266324305</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="X11" t="n">
-        <v>379.1199113147929</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.9970510540782</v>
+        <v>132.8741907933637</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.8741907933634</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C12" t="n">
-        <v>132.8741907933634</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D12" t="n">
-        <v>132.8741907933634</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E12" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F12" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G12" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H12" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I12" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K12" t="n">
-        <v>43.63722270065711</v>
+        <v>43.63722270065728</v>
       </c>
       <c r="L12" t="n">
-        <v>119.3106382502217</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M12" t="n">
-        <v>220.1999092241152</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1250381905281</v>
+        <v>333.1250381905289</v>
       </c>
       <c r="O12" t="n">
-        <v>421.9866026009616</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P12" t="n">
-        <v>480.7393491561078</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R12" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S12" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T12" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U12" t="n">
-        <v>487.5665266324305</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="V12" t="n">
-        <v>487.5665266324305</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="W12" t="n">
-        <v>364.4436663717157</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="X12" t="n">
-        <v>255.9970510540782</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.9970510540782</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.49510208711696</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C13" t="n">
-        <v>23.49510208711696</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D13" t="n">
-        <v>23.49510208711696</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="E13" t="n">
-        <v>23.49510208711696</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F13" t="n">
-        <v>23.49510208711696</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="G13" t="n">
-        <v>23.49510208711696</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H13" t="n">
-        <v>23.49510208711696</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I13" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J13" t="n">
-        <v>9.751330532648609</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K13" t="n">
-        <v>67.96966285689224</v>
+        <v>124.685860680539</v>
       </c>
       <c r="L13" t="n">
-        <v>188.6423781984188</v>
+        <v>245.3585760220658</v>
       </c>
       <c r="M13" t="n">
-        <v>309.3150935399453</v>
+        <v>366.0312913635926</v>
       </c>
       <c r="N13" t="n">
-        <v>429.9878088814719</v>
+        <v>486.7040067051194</v>
       </c>
       <c r="O13" t="n">
-        <v>430.850328808784</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="P13" t="n">
-        <v>430.850328808784</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R13" t="n">
-        <v>392.8636828692613</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S13" t="n">
-        <v>269.7408226085465</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T13" t="n">
-        <v>146.6179623478317</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="U13" t="n">
-        <v>23.49510208711696</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="V13" t="n">
-        <v>23.49510208711696</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="W13" t="n">
-        <v>23.49510208711696</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="X13" t="n">
-        <v>23.49510208711696</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.49510208711696</v>
+        <v>255.9970510540787</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.3208061110009</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C14" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D14" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="E14" t="n">
-        <v>9.751330532648609</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F14" t="n">
-        <v>9.751330532648609</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="G14" t="n">
-        <v>9.751330532648609</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="H14" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254440991</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388251</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151461</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919079</v>
+        <v>225.6291823919091</v>
       </c>
       <c r="N14" t="n">
-        <v>331.1718826730474</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O14" t="n">
-        <v>422.1649418990614</v>
+        <v>422.1649418990626</v>
       </c>
       <c r="P14" t="n">
-        <v>477.3997621913161</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T14" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U14" t="n">
-        <v>487.5665266324305</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="V14" t="n">
-        <v>487.5665266324305</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="W14" t="n">
-        <v>487.5665266324305</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="X14" t="n">
-        <v>487.5665266324305</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="Y14" t="n">
-        <v>364.4436663717157</v>
+        <v>132.8741907933637</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.751330532648609</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="C15" t="n">
-        <v>9.751330532648609</v>
+        <v>336.8137639426274</v>
       </c>
       <c r="D15" t="n">
-        <v>9.751330532648609</v>
+        <v>213.6909036819123</v>
       </c>
       <c r="E15" t="n">
-        <v>9.751330532648609</v>
+        <v>90.5680434211973</v>
       </c>
       <c r="F15" t="n">
-        <v>9.751330532648609</v>
+        <v>90.5680434211973</v>
       </c>
       <c r="G15" t="n">
-        <v>9.751330532648609</v>
+        <v>90.5680434211973</v>
       </c>
       <c r="H15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065728</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241153</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905284</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009617</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561078</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R15" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S15" t="n">
-        <v>487.5665266324305</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="T15" t="n">
-        <v>487.5665266324305</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="U15" t="n">
-        <v>364.4436663717157</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="V15" t="n">
-        <v>241.3208061110009</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="W15" t="n">
-        <v>118.1979458502861</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="X15" t="n">
-        <v>9.751330532648609</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.751330532648609</v>
+        <v>367.0231244498533</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.1199113147929</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C16" t="n">
-        <v>379.1199113147929</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D16" t="n">
-        <v>255.9970510540782</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E16" t="n">
-        <v>132.8741907933634</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J16" t="n">
-        <v>24.97459687068091</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K16" t="n">
-        <v>110.3198338703844</v>
+        <v>117.7239252750036</v>
       </c>
       <c r="L16" t="n">
-        <v>230.992549211911</v>
+        <v>125.5483806078511</v>
       </c>
       <c r="M16" t="n">
-        <v>351.6652645534375</v>
+        <v>246.2210959493779</v>
       </c>
       <c r="N16" t="n">
-        <v>366.8938112909039</v>
+        <v>366.8938112909048</v>
       </c>
       <c r="O16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="P16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U16" t="n">
-        <v>487.5665266324305</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="V16" t="n">
-        <v>487.5665266324305</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="W16" t="n">
-        <v>487.5665266324305</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="X16" t="n">
-        <v>487.5665266324305</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.1199113147929</v>
+        <v>255.9970510540787</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1979458502861</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C17" t="n">
-        <v>118.1979458502861</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D17" t="n">
-        <v>118.1979458502861</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="E17" t="n">
-        <v>118.1979458502861</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F17" t="n">
-        <v>9.751330532648609</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="G17" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H17" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441008</v>
+        <v>13.67191254441025</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388282</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919089</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730479</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P17" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="W17" t="n">
-        <v>364.4436663717157</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X17" t="n">
-        <v>241.3208061110009</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="Y17" t="n">
-        <v>118.1979458502861</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065725</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905285</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O18" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009624</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R18" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S18" t="n">
-        <v>367.0231244498522</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T18" t="n">
-        <v>255.9970510540782</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U18" t="n">
-        <v>255.9970510540782</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="V18" t="n">
-        <v>255.9970510540782</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="W18" t="n">
-        <v>255.9970510540782</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="X18" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J19" t="n">
-        <v>24.97459687068093</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K19" t="n">
-        <v>145.6473122122075</v>
+        <v>145.6473122122078</v>
       </c>
       <c r="L19" t="n">
-        <v>266.320027553734</v>
+        <v>153.4717675450553</v>
       </c>
       <c r="M19" t="n">
-        <v>386.9927428952606</v>
+        <v>189.5048981257315</v>
       </c>
       <c r="N19" t="n">
-        <v>486.7040067051183</v>
+        <v>310.1776134672583</v>
       </c>
       <c r="O19" t="n">
-        <v>487.5665266324305</v>
+        <v>430.8503288087851</v>
       </c>
       <c r="P19" t="n">
-        <v>487.5665266324305</v>
+        <v>430.8503288087851</v>
       </c>
       <c r="Q19" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R19" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S19" t="n">
-        <v>364.4436663717157</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T19" t="n">
-        <v>364.4436663717157</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U19" t="n">
-        <v>364.4436663717157</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="V19" t="n">
-        <v>364.4436663717157</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="W19" t="n">
-        <v>364.4436663717157</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X19" t="n">
-        <v>241.3208061110009</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y19" t="n">
-        <v>118.1979458502861</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.751330532648614</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="C20" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D20" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E20" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F20" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G20" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H20" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J20" t="n">
         <v>13.67191254441013</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388314</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151468</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919087</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730483</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O20" t="n">
-        <v>422.164941899062</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913163</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S20" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T20" t="n">
-        <v>364.4436663717158</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U20" t="n">
-        <v>364.4436663717158</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="V20" t="n">
-        <v>364.4436663717158</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="W20" t="n">
-        <v>255.9970510540783</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="X20" t="n">
-        <v>132.8741907933635</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.751330532648614</v>
+        <v>255.9970510540787</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>252.1594399656071</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C21" t="n">
         <v>129.0365797048923</v>
@@ -5822,61 +5822,61 @@
         <v>129.0365797048923</v>
       </c>
       <c r="G21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065728</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502218</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241153</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905284</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561081</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V21" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="W21" t="n">
-        <v>375.282300226322</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X21" t="n">
-        <v>252.1594399656071</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="Y21" t="n">
-        <v>252.1594399656071</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J22" t="n">
-        <v>9.751330532648614</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K22" t="n">
-        <v>9.751330532648614</v>
+        <v>145.6473122122078</v>
       </c>
       <c r="L22" t="n">
-        <v>68.83218278420436</v>
+        <v>153.4717675450553</v>
       </c>
       <c r="M22" t="n">
-        <v>189.504898125731</v>
+        <v>274.1444828865821</v>
       </c>
       <c r="N22" t="n">
-        <v>310.1776134672576</v>
+        <v>289.3730296240486</v>
       </c>
       <c r="O22" t="n">
-        <v>430.8503288087842</v>
+        <v>310.1776134672583</v>
       </c>
       <c r="P22" t="n">
-        <v>430.8503288087842</v>
+        <v>430.8503288087851</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R22" t="n">
-        <v>487.5665266324307</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="S22" t="n">
-        <v>487.5665266324307</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="T22" t="n">
-        <v>364.4436663717158</v>
+        <v>269.7408226085474</v>
       </c>
       <c r="U22" t="n">
-        <v>241.320806111001</v>
+        <v>146.6179623478324</v>
       </c>
       <c r="V22" t="n">
-        <v>118.1979458502862</v>
+        <v>146.6179623478324</v>
       </c>
       <c r="W22" t="n">
-        <v>9.751330532648614</v>
+        <v>146.6179623478324</v>
       </c>
       <c r="X22" t="n">
-        <v>9.751330532648614</v>
+        <v>23.4951020871173</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>487.4968187591758</v>
+        <v>1276.642580220082</v>
       </c>
       <c r="C23" t="n">
-        <v>487.4968187591758</v>
+        <v>883.467078723012</v>
       </c>
       <c r="D23" t="n">
-        <v>487.4968187591758</v>
+        <v>883.467078723012</v>
       </c>
       <c r="E23" t="n">
-        <v>487.4968187591758</v>
+        <v>480.8835538395565</v>
       </c>
       <c r="F23" t="n">
-        <v>70.6023802891535</v>
+        <v>480.8835538395565</v>
       </c>
       <c r="G23" t="n">
         <v>70.6023802891535</v>
@@ -5989,25 +5989,25 @@
         <v>43.35745195596453</v>
       </c>
       <c r="J23" t="n">
-        <v>166.5581231323113</v>
+        <v>166.5581231323111</v>
       </c>
       <c r="K23" t="n">
-        <v>384.1840296061607</v>
+        <v>384.1840296061603</v>
       </c>
       <c r="L23" t="n">
-        <v>678.1543555936485</v>
+        <v>678.1543555936481</v>
       </c>
       <c r="M23" t="n">
         <v>1025.838119611198</v>
       </c>
       <c r="N23" t="n">
-        <v>1382.146745868978</v>
+        <v>1382.146745868977</v>
       </c>
       <c r="O23" t="n">
         <v>1709.930958110258</v>
       </c>
       <c r="P23" t="n">
-        <v>1967.2615491441</v>
+        <v>1967.261549144099</v>
       </c>
       <c r="Q23" t="n">
         <v>2129.193820927262</v>
@@ -6016,25 +6016,25 @@
         <v>2167.872597798226</v>
       </c>
       <c r="S23" t="n">
-        <v>2167.872597798226</v>
+        <v>2067.023091689096</v>
       </c>
       <c r="T23" t="n">
-        <v>1956.98612039452</v>
+        <v>2067.023091689096</v>
       </c>
       <c r="U23" t="n">
-        <v>1956.98612039452</v>
+        <v>1811.500888680622</v>
       </c>
       <c r="V23" t="n">
-        <v>1644.43916793723</v>
+        <v>1647.641615251794</v>
       </c>
       <c r="W23" t="n">
-        <v>1273.440132905518</v>
+        <v>1276.642580220082</v>
       </c>
       <c r="X23" t="n">
-        <v>883.9875278385746</v>
+        <v>1276.642580220082</v>
       </c>
       <c r="Y23" t="n">
-        <v>487.4968187591758</v>
+        <v>1276.642580220082</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>43.35745195596453</v>
       </c>
       <c r="I24" t="n">
-        <v>43.35745195596453</v>
+        <v>46.97993996379401</v>
       </c>
       <c r="J24" t="n">
-        <v>299.2383221571868</v>
+        <v>108.1258151852889</v>
       </c>
       <c r="K24" t="n">
-        <v>454.5469981536361</v>
+        <v>361.2767145989749</v>
       </c>
       <c r="L24" t="n">
-        <v>693.4883310627619</v>
+        <v>600.2180475081007</v>
       </c>
       <c r="M24" t="n">
-        <v>984.9035607451058</v>
+        <v>891.6332771904446</v>
       </c>
       <c r="N24" t="n">
-        <v>1293.397303619298</v>
+        <v>1200.127020064637</v>
       </c>
       <c r="O24" t="n">
-        <v>1561.16594232534</v>
+        <v>1467.895658770679</v>
       </c>
       <c r="P24" t="n">
-        <v>1763.507388728998</v>
+        <v>1670.237105174337</v>
       </c>
       <c r="Q24" t="n">
-        <v>2167.796555931285</v>
+        <v>2097.492889074681</v>
       </c>
       <c r="R24" t="n">
         <v>2167.872597798226</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.0419053498706</v>
+        <v>868.918024286994</v>
       </c>
       <c r="C25" t="n">
-        <v>678.8367874158598</v>
+        <v>822.8231408205684</v>
       </c>
       <c r="D25" t="n">
-        <v>523.2036743183745</v>
+        <v>667.1900277230832</v>
       </c>
       <c r="E25" t="n">
-        <v>367.644862177577</v>
+        <v>511.6312155822856</v>
       </c>
       <c r="F25" t="n">
-        <v>210.31892739055</v>
+        <v>354.3052807952586</v>
       </c>
       <c r="G25" t="n">
-        <v>43.35745195596453</v>
+        <v>187.3438053606731</v>
       </c>
       <c r="H25" t="n">
         <v>43.35745195596453</v>
@@ -6150,13 +6150,13 @@
         <v>103.1504394814121</v>
       </c>
       <c r="K25" t="n">
-        <v>329.0978738226441</v>
+        <v>332.1711319955548</v>
       </c>
       <c r="L25" t="n">
-        <v>681.5724732476413</v>
+        <v>684.645731420552</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.449512240259</v>
+        <v>1069.522770413169</v>
       </c>
       <c r="N25" t="n">
         <v>1443.50268853179</v>
@@ -6174,25 +6174,25 @@
         <v>2167.872597798226</v>
       </c>
       <c r="S25" t="n">
-        <v>1987.582631428618</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T25" t="n">
-        <v>1757.386414860538</v>
+        <v>1937.676381230146</v>
       </c>
       <c r="U25" t="n">
-        <v>1757.386414860538</v>
+        <v>1652.308093752009</v>
       </c>
       <c r="V25" t="n">
-        <v>1757.386414860538</v>
+        <v>1386.328748572833</v>
       </c>
       <c r="W25" t="n">
-        <v>1474.056012791715</v>
+        <v>1102.998346504011</v>
       </c>
       <c r="X25" t="n">
-        <v>1239.975690574699</v>
+        <v>868.918024286994</v>
       </c>
       <c r="Y25" t="n">
-        <v>1034.249924041172</v>
+        <v>868.918024286994</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>758.3499309555596</v>
+        <v>723.3706299086333</v>
       </c>
       <c r="C26" t="n">
-        <v>365.1744294584901</v>
+        <v>723.3706299086333</v>
       </c>
       <c r="D26" t="n">
-        <v>365.1744294584901</v>
+        <v>337.929501125301</v>
       </c>
       <c r="E26" t="n">
-        <v>365.1744294584901</v>
+        <v>337.929501125301</v>
       </c>
       <c r="F26" t="n">
-        <v>365.1744294584901</v>
+        <v>337.929501125301</v>
       </c>
       <c r="G26" t="n">
-        <v>365.1744294584901</v>
+        <v>337.929501125301</v>
       </c>
       <c r="H26" t="n">
-        <v>70.6023802891535</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="I26" t="n">
         <v>43.35745195596453</v>
@@ -6232,46 +6232,46 @@
         <v>384.1840296061603</v>
       </c>
       <c r="L26" t="n">
-        <v>678.1543555936481</v>
+        <v>678.1543555936485</v>
       </c>
       <c r="M26" t="n">
         <v>1025.838119611198</v>
       </c>
       <c r="N26" t="n">
-        <v>1382.146745868977</v>
+        <v>1382.146745868978</v>
       </c>
       <c r="O26" t="n">
         <v>1709.930958110258</v>
       </c>
       <c r="P26" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.2615491441</v>
       </c>
       <c r="Q26" t="n">
-        <v>2129.193820927261</v>
+        <v>2129.193820927262</v>
       </c>
       <c r="R26" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="S26" t="n">
-        <v>2067.023091689096</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T26" t="n">
-        <v>1856.13661428539</v>
+        <v>2081.451282312245</v>
       </c>
       <c r="U26" t="n">
-        <v>1856.13661428539</v>
+        <v>1825.929079303771</v>
       </c>
       <c r="V26" t="n">
-        <v>1856.13661428539</v>
+        <v>1483.822270007289</v>
       </c>
       <c r="W26" t="n">
-        <v>1485.137579253678</v>
+        <v>1112.823234975576</v>
       </c>
       <c r="X26" t="n">
-        <v>1154.840640034958</v>
+        <v>723.3706299086333</v>
       </c>
       <c r="Y26" t="n">
-        <v>758.3499309555596</v>
+        <v>723.3706299086333</v>
       </c>
     </row>
     <row r="27">
@@ -6314,25 +6314,25 @@
         <v>697.1108190705913</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.325582145425</v>
+        <v>988.5260487529353</v>
       </c>
       <c r="N27" t="n">
-        <v>1594.874050100486</v>
+        <v>1297.019791627127</v>
       </c>
       <c r="O27" t="n">
-        <v>1862.642688806528</v>
+        <v>1564.788430333169</v>
       </c>
       <c r="P27" t="n">
-        <v>2064.984135210186</v>
+        <v>1767.129876736827</v>
       </c>
       <c r="Q27" t="n">
-        <v>2167.796555931285</v>
+        <v>2097.492889074681</v>
       </c>
       <c r="R27" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="S27" t="n">
-        <v>2061.579850201192</v>
+        <v>2130.709962009823</v>
       </c>
       <c r="T27" t="n">
         <v>1959.940614721919</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>890.9915449074676</v>
+        <v>280.3079780427275</v>
       </c>
       <c r="C28" t="n">
-        <v>720.7864269734569</v>
+        <v>280.3079780427275</v>
       </c>
       <c r="D28" t="n">
-        <v>565.1533138759717</v>
+        <v>280.3079780427275</v>
       </c>
       <c r="E28" t="n">
-        <v>409.5945017351742</v>
+        <v>280.3079780427275</v>
       </c>
       <c r="F28" t="n">
-        <v>252.2685669481471</v>
+        <v>280.3079780427275</v>
       </c>
       <c r="G28" t="n">
-        <v>85.30709151356169</v>
+        <v>280.3079780427275</v>
       </c>
       <c r="H28" t="n">
-        <v>85.30709151356169</v>
+        <v>136.3216246380189</v>
       </c>
       <c r="I28" t="n">
         <v>43.35745195596453</v>
@@ -6408,28 +6408,28 @@
         <v>2167.872597798226</v>
       </c>
       <c r="R28" t="n">
-        <v>2102.090636546102</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S28" t="n">
-        <v>2102.090636546102</v>
+        <v>1987.582631428618</v>
       </c>
       <c r="T28" t="n">
-        <v>2102.090636546102</v>
+        <v>1757.386414860538</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.722349067965</v>
+        <v>1472.018127382401</v>
       </c>
       <c r="V28" t="n">
-        <v>1816.722349067965</v>
+        <v>1206.038782203225</v>
       </c>
       <c r="W28" t="n">
-        <v>1533.391946999142</v>
+        <v>922.7083801344024</v>
       </c>
       <c r="X28" t="n">
-        <v>1299.311624782126</v>
+        <v>688.6280579173855</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.199563598769</v>
+        <v>465.5159967340288</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301.4095895616325</v>
+        <v>858.0128562690377</v>
       </c>
       <c r="C29" t="n">
-        <v>301.4095895616325</v>
+        <v>858.0128562690377</v>
       </c>
       <c r="D29" t="n">
-        <v>301.4095895616325</v>
+        <v>472.5717274857054</v>
       </c>
       <c r="E29" t="n">
-        <v>301.4095895616325</v>
+        <v>69.98820260224994</v>
       </c>
       <c r="F29" t="n">
-        <v>301.4095895616325</v>
+        <v>69.98820260224994</v>
       </c>
       <c r="G29" t="n">
-        <v>301.4095895616325</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="H29" t="n">
         <v>43.35745195596453</v>
@@ -6469,7 +6469,7 @@
         <v>384.1840296061603</v>
       </c>
       <c r="L29" t="n">
-        <v>678.1543555936481</v>
+        <v>678.1543555936478</v>
       </c>
       <c r="M29" t="n">
         <v>1025.838119611198</v>
@@ -6481,7 +6481,7 @@
         <v>1709.930958110258</v>
       </c>
       <c r="P29" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.2615491441</v>
       </c>
       <c r="Q29" t="n">
         <v>2129.193820927262</v>
@@ -6493,22 +6493,22 @@
         <v>2067.023091689096</v>
       </c>
       <c r="T29" t="n">
-        <v>2067.023091689096</v>
+        <v>1856.13661428539</v>
       </c>
       <c r="U29" t="n">
-        <v>1811.500888680622</v>
+        <v>1600.614411276916</v>
       </c>
       <c r="V29" t="n">
-        <v>1469.394079384141</v>
+        <v>1258.507601980435</v>
       </c>
       <c r="W29" t="n">
-        <v>1098.395044352428</v>
+        <v>1258.507601980435</v>
       </c>
       <c r="X29" t="n">
-        <v>1098.395044352428</v>
+        <v>1258.507601980435</v>
       </c>
       <c r="Y29" t="n">
-        <v>701.9043352730293</v>
+        <v>1258.507601980435</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>46.97993996379401</v>
       </c>
       <c r="J30" t="n">
-        <v>108.1258151852889</v>
+        <v>276.2717054591292</v>
       </c>
       <c r="K30" t="n">
-        <v>263.4344911817383</v>
+        <v>431.5803814555786</v>
       </c>
       <c r="L30" t="n">
-        <v>502.3758240908641</v>
+        <v>670.5217143647044</v>
       </c>
       <c r="M30" t="n">
-        <v>1038.924292045925</v>
+        <v>961.9369440470483</v>
       </c>
       <c r="N30" t="n">
-        <v>1575.472760000986</v>
+        <v>1270.430686921241</v>
       </c>
       <c r="O30" t="n">
-        <v>1843.241398707028</v>
+        <v>1538.199325627283</v>
       </c>
       <c r="P30" t="n">
-        <v>2045.582845110686</v>
+        <v>1740.540772030941</v>
       </c>
       <c r="Q30" t="n">
         <v>2167.796555931285</v>
@@ -6572,19 +6572,19 @@
         <v>2061.579850201192</v>
       </c>
       <c r="T30" t="n">
-        <v>1890.810502913287</v>
+        <v>1959.940614721919</v>
       </c>
       <c r="U30" t="n">
-        <v>1680.848792636214</v>
+        <v>1749.978904444846</v>
       </c>
       <c r="V30" t="n">
-        <v>1458.308791007281</v>
+        <v>1527.438902815913</v>
       </c>
       <c r="W30" t="n">
-        <v>1228.191545140568</v>
+        <v>1297.321656949199</v>
       </c>
       <c r="X30" t="n">
-        <v>1038.88446749058</v>
+        <v>1108.014579299211</v>
       </c>
       <c r="Y30" t="n">
         <v>928.7003623747183</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.1820363921692</v>
+        <v>509.8640929360561</v>
       </c>
       <c r="C31" t="n">
-        <v>342.9769184581584</v>
+        <v>509.8640929360561</v>
       </c>
       <c r="D31" t="n">
-        <v>187.3438053606731</v>
+        <v>509.8640929360561</v>
       </c>
       <c r="E31" t="n">
-        <v>187.3438053606731</v>
+        <v>354.3052807952586</v>
       </c>
       <c r="F31" t="n">
-        <v>187.3438053606731</v>
+        <v>354.3052807952586</v>
       </c>
       <c r="G31" t="n">
         <v>187.3438053606731</v>
@@ -6621,52 +6621,52 @@
         <v>43.35745195596453</v>
       </c>
       <c r="J31" t="n">
-        <v>100.0771813085013</v>
+        <v>103.1504394814121</v>
       </c>
       <c r="K31" t="n">
-        <v>329.0978738226441</v>
+        <v>332.1711319955548</v>
       </c>
       <c r="L31" t="n">
-        <v>681.5724732476413</v>
+        <v>684.645731420552</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.449512240259</v>
+        <v>1069.522770413169</v>
       </c>
       <c r="N31" t="n">
-        <v>1443.50268853179</v>
+        <v>1446.575946704701</v>
       </c>
       <c r="O31" t="n">
-        <v>1785.271814574478</v>
+        <v>1788.345072747388</v>
       </c>
       <c r="P31" t="n">
-        <v>2058.368473800312</v>
+        <v>2061.441731973222</v>
       </c>
       <c r="Q31" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="R31" t="n">
-        <v>2102.090636546102</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S31" t="n">
-        <v>1921.800670176493</v>
+        <v>2031.930727630645</v>
       </c>
       <c r="T31" t="n">
-        <v>1691.604453608413</v>
+        <v>1801.734511062565</v>
       </c>
       <c r="U31" t="n">
-        <v>1406.236166130276</v>
+        <v>1516.366223584428</v>
       </c>
       <c r="V31" t="n">
-        <v>1140.256820951101</v>
+        <v>1250.386878405252</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9264188822781</v>
+        <v>967.0564763364297</v>
       </c>
       <c r="X31" t="n">
-        <v>622.8460966652611</v>
+        <v>732.9761541194127</v>
       </c>
       <c r="Y31" t="n">
-        <v>513.1820363921692</v>
+        <v>509.8640929360561</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>833.1246671658048</v>
+        <v>1238.868520706388</v>
       </c>
       <c r="C32" t="n">
-        <v>833.1246671658048</v>
+        <v>845.693019209319</v>
       </c>
       <c r="D32" t="n">
-        <v>833.1246671658048</v>
+        <v>460.2518904259867</v>
       </c>
       <c r="E32" t="n">
-        <v>833.1246671658048</v>
+        <v>460.2518904259867</v>
       </c>
       <c r="F32" t="n">
-        <v>480.8835538395565</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="G32" t="n">
-        <v>70.6023802891535</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="H32" t="n">
-        <v>70.6023802891535</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="I32" t="n">
         <v>43.35745195596453</v>
       </c>
       <c r="J32" t="n">
-        <v>166.5581231323115</v>
+        <v>166.5581231323111</v>
       </c>
       <c r="K32" t="n">
-        <v>384.1840296061609</v>
+        <v>384.1840296061603</v>
       </c>
       <c r="L32" t="n">
-        <v>678.1543555936487</v>
+        <v>678.1543555936481</v>
       </c>
       <c r="M32" t="n">
         <v>1025.838119611198</v>
       </c>
       <c r="N32" t="n">
-        <v>1382.146745868978</v>
+        <v>1382.146745868977</v>
       </c>
       <c r="O32" t="n">
         <v>1709.930958110258</v>
       </c>
       <c r="P32" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.2615491441</v>
       </c>
       <c r="Q32" t="n">
-        <v>2129.193820927261</v>
+        <v>2129.193820927262</v>
       </c>
       <c r="R32" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="S32" t="n">
-        <v>2067.023091689096</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T32" t="n">
-        <v>1856.13661428539</v>
+        <v>1956.98612039452</v>
       </c>
       <c r="U32" t="n">
-        <v>1600.614411276916</v>
+        <v>1956.98612039452</v>
       </c>
       <c r="V32" t="n">
-        <v>1600.614411276916</v>
+        <v>1956.98612039452</v>
       </c>
       <c r="W32" t="n">
-        <v>1229.615376245204</v>
+        <v>1585.987085362807</v>
       </c>
       <c r="X32" t="n">
-        <v>1229.615376245204</v>
+        <v>1585.987085362807</v>
       </c>
       <c r="Y32" t="n">
-        <v>833.1246671658048</v>
+        <v>1238.868520706388</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>43.35745195596453</v>
       </c>
       <c r="I33" t="n">
-        <v>46.97993996379401</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="J33" t="n">
-        <v>108.1258151852889</v>
+        <v>104.5033271774594</v>
       </c>
       <c r="K33" t="n">
-        <v>263.4344911817383</v>
+        <v>421.8167230834208</v>
       </c>
       <c r="L33" t="n">
-        <v>502.3758240908641</v>
+        <v>660.7580559925466</v>
       </c>
       <c r="M33" t="n">
-        <v>793.791053773208</v>
+        <v>952.1732856748905</v>
       </c>
       <c r="N33" t="n">
-        <v>1270.430686921241</v>
+        <v>1260.667028549083</v>
       </c>
       <c r="O33" t="n">
-        <v>1538.199325627283</v>
+        <v>1528.435667255125</v>
       </c>
       <c r="P33" t="n">
-        <v>1740.540772030941</v>
+        <v>2064.984135210186</v>
       </c>
       <c r="Q33" t="n">
         <v>2167.796555931285</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>943.2649710271055</v>
+        <v>876.0021796717176</v>
       </c>
       <c r="C34" t="n">
-        <v>773.0598530930947</v>
+        <v>876.0021796717176</v>
       </c>
       <c r="D34" t="n">
-        <v>617.4267399956095</v>
+        <v>720.3690665742324</v>
       </c>
       <c r="E34" t="n">
-        <v>461.8679278548121</v>
+        <v>564.8102544334349</v>
       </c>
       <c r="F34" t="n">
-        <v>304.541993067785</v>
+        <v>407.4843196464079</v>
       </c>
       <c r="G34" t="n">
-        <v>137.5805176331996</v>
+        <v>240.5228442118224</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5805176331996</v>
+        <v>96.53649080711384</v>
       </c>
       <c r="I34" t="n">
         <v>43.35745195596453</v>
       </c>
       <c r="J34" t="n">
-        <v>103.1504394814121</v>
+        <v>100.0771813085013</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1711319955548</v>
+        <v>329.0978738226441</v>
       </c>
       <c r="L34" t="n">
-        <v>684.645731420552</v>
+        <v>681.5724732476413</v>
       </c>
       <c r="M34" t="n">
-        <v>1069.522770413169</v>
+        <v>1066.449512240259</v>
       </c>
       <c r="N34" t="n">
-        <v>1446.575946704701</v>
+        <v>1443.50268853179</v>
       </c>
       <c r="O34" t="n">
-        <v>1788.345072747388</v>
+        <v>1785.271814574478</v>
       </c>
       <c r="P34" t="n">
-        <v>2061.441731973222</v>
+        <v>2058.368473800312</v>
       </c>
       <c r="Q34" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="R34" t="n">
-        <v>2102.090636546102</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S34" t="n">
-        <v>1921.800670176493</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T34" t="n">
-        <v>1691.604453608413</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="U34" t="n">
-        <v>1585.66537311878</v>
+        <v>1882.504310320089</v>
       </c>
       <c r="V34" t="n">
-        <v>1585.66537311878</v>
+        <v>1616.524965140914</v>
       </c>
       <c r="W34" t="n">
-        <v>1585.66537311878</v>
+        <v>1333.194563072091</v>
       </c>
       <c r="X34" t="n">
-        <v>1351.585050901763</v>
+        <v>1099.114240855074</v>
       </c>
       <c r="Y34" t="n">
-        <v>1128.472989718407</v>
+        <v>876.0021796717176</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1600.614411276916</v>
+        <v>1273.116588859845</v>
       </c>
       <c r="C35" t="n">
-        <v>1600.614411276916</v>
+        <v>1273.116588859845</v>
       </c>
       <c r="D35" t="n">
-        <v>1594.933566362371</v>
+        <v>1273.116588859845</v>
       </c>
       <c r="E35" t="n">
-        <v>1192.350041478916</v>
+        <v>870.5330639763897</v>
       </c>
       <c r="F35" t="n">
-        <v>775.4556030088931</v>
+        <v>453.6386255063675</v>
       </c>
       <c r="G35" t="n">
-        <v>365.1744294584901</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="H35" t="n">
-        <v>70.6023802891535</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="I35" t="n">
         <v>43.35745195596453</v>
       </c>
       <c r="J35" t="n">
-        <v>166.5581231323115</v>
+        <v>166.5581231323113</v>
       </c>
       <c r="K35" t="n">
-        <v>384.1840296061609</v>
+        <v>384.1840296061607</v>
       </c>
       <c r="L35" t="n">
-        <v>678.1543555936487</v>
+        <v>678.1543555936485</v>
       </c>
       <c r="M35" t="n">
         <v>1025.838119611198</v>
       </c>
       <c r="N35" t="n">
-        <v>1382.146745868977</v>
+        <v>1382.146745868978</v>
       </c>
       <c r="O35" t="n">
         <v>1709.930958110258</v>
       </c>
       <c r="P35" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.2615491441</v>
       </c>
       <c r="Q35" t="n">
-        <v>2129.193820927261</v>
+        <v>2129.193820927262</v>
       </c>
       <c r="R35" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="S35" t="n">
-        <v>2067.023091689096</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T35" t="n">
-        <v>1856.13661428539</v>
+        <v>1956.98612039452</v>
       </c>
       <c r="U35" t="n">
-        <v>1600.614411276916</v>
+        <v>1956.98612039452</v>
       </c>
       <c r="V35" t="n">
-        <v>1600.614411276916</v>
+        <v>1614.879311098038</v>
       </c>
       <c r="W35" t="n">
-        <v>1600.614411276916</v>
+        <v>1614.879311098038</v>
       </c>
       <c r="X35" t="n">
-        <v>1600.614411276916</v>
+        <v>1614.879311098038</v>
       </c>
       <c r="Y35" t="n">
-        <v>1600.614411276916</v>
+        <v>1273.116588859845</v>
       </c>
     </row>
     <row r="36">
@@ -7001,10 +7001,10 @@
         <v>427.0307183066982</v>
       </c>
       <c r="E36" t="n">
-        <v>290.5842274175859</v>
+        <v>359.7143392262172</v>
       </c>
       <c r="F36" t="n">
-        <v>166.1524213007177</v>
+        <v>235.2825331093491</v>
       </c>
       <c r="G36" t="n">
         <v>116.7644974543436</v>
@@ -7037,7 +7037,7 @@
         <v>1767.129876736827</v>
       </c>
       <c r="Q36" t="n">
-        <v>2167.796555931285</v>
+        <v>2097.492889074681</v>
       </c>
       <c r="R36" t="n">
         <v>2167.872597798226</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.251324431814</v>
+        <v>993.0282587545792</v>
       </c>
       <c r="C37" t="n">
-        <v>917.0462064978033</v>
+        <v>822.8231408205684</v>
       </c>
       <c r="D37" t="n">
-        <v>761.4130934003181</v>
+        <v>667.1900277230832</v>
       </c>
       <c r="E37" t="n">
-        <v>605.8542812595206</v>
+        <v>511.6312155822856</v>
       </c>
       <c r="F37" t="n">
-        <v>448.5283464724936</v>
+        <v>354.3052807952586</v>
       </c>
       <c r="G37" t="n">
-        <v>281.5668710379082</v>
+        <v>187.3438053606731</v>
       </c>
       <c r="H37" t="n">
-        <v>137.5805176331996</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="I37" t="n">
         <v>43.35745195596453</v>
@@ -7101,46 +7101,46 @@
         <v>332.1711319955548</v>
       </c>
       <c r="L37" t="n">
-        <v>684.645731420552</v>
+        <v>681.5724732476413</v>
       </c>
       <c r="M37" t="n">
-        <v>1069.522770413169</v>
+        <v>1066.449512240259</v>
       </c>
       <c r="N37" t="n">
-        <v>1446.575946704701</v>
+        <v>1443.50268853179</v>
       </c>
       <c r="O37" t="n">
-        <v>1788.345072747388</v>
+        <v>1785.271814574478</v>
       </c>
       <c r="P37" t="n">
-        <v>2061.441731973222</v>
+        <v>2058.368473800312</v>
       </c>
       <c r="Q37" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="R37" t="n">
-        <v>2102.090636546102</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S37" t="n">
-        <v>1921.800670176493</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T37" t="n">
-        <v>1691.604453608413</v>
+        <v>2012.914312172016</v>
       </c>
       <c r="U37" t="n">
-        <v>1406.236166130276</v>
+        <v>1727.546024693879</v>
       </c>
       <c r="V37" t="n">
-        <v>1272.459343123115</v>
+        <v>1461.566679514703</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.459343123115</v>
+        <v>1178.23627744588</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.459343123115</v>
+        <v>1178.23627744588</v>
       </c>
       <c r="Y37" t="n">
-        <v>1272.459343123115</v>
+        <v>1178.23627744588</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1273.116588859845</v>
+        <v>809.7919453946148</v>
       </c>
       <c r="C38" t="n">
-        <v>1273.116588859845</v>
+        <v>809.7919453946148</v>
       </c>
       <c r="D38" t="n">
-        <v>1273.116588859845</v>
+        <v>424.3508166112825</v>
       </c>
       <c r="E38" t="n">
-        <v>870.5330639763897</v>
+        <v>70.6023802891535</v>
       </c>
       <c r="F38" t="n">
-        <v>453.6386255063675</v>
+        <v>70.6023802891535</v>
       </c>
       <c r="G38" t="n">
-        <v>43.35745195596451</v>
+        <v>70.6023802891535</v>
       </c>
       <c r="H38" t="n">
-        <v>43.35745195596451</v>
+        <v>70.6023802891535</v>
       </c>
       <c r="I38" t="n">
-        <v>43.35745195596451</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="J38" t="n">
-        <v>166.5581231323111</v>
+        <v>166.5581231323115</v>
       </c>
       <c r="K38" t="n">
-        <v>384.1840296061603</v>
+        <v>384.1840296061609</v>
       </c>
       <c r="L38" t="n">
-        <v>678.1543555936482</v>
+        <v>678.1543555936487</v>
       </c>
       <c r="M38" t="n">
-        <v>1025.838119611198</v>
+        <v>1025.838119611199</v>
       </c>
       <c r="N38" t="n">
-        <v>1382.146745868977</v>
+        <v>1382.146745868978</v>
       </c>
       <c r="O38" t="n">
-        <v>1709.930958110258</v>
+        <v>1709.930958110259</v>
       </c>
       <c r="P38" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.2615491441</v>
       </c>
       <c r="Q38" t="n">
-        <v>2129.193820927261</v>
+        <v>2129.193820927262</v>
       </c>
       <c r="R38" t="n">
         <v>2167.872597798226</v>
@@ -7204,22 +7204,22 @@
         <v>2167.872597798226</v>
       </c>
       <c r="T38" t="n">
-        <v>2004.67600322327</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="U38" t="n">
-        <v>2004.67600322327</v>
+        <v>1912.350394789752</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.569193926789</v>
+        <v>1570.243585493271</v>
       </c>
       <c r="W38" t="n">
-        <v>1662.569193926789</v>
+        <v>1199.244550461558</v>
       </c>
       <c r="X38" t="n">
-        <v>1273.116588859845</v>
+        <v>809.7919453946148</v>
       </c>
       <c r="Y38" t="n">
-        <v>1273.116588859845</v>
+        <v>809.7919453946148</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>707.7739161251252</v>
+        <v>707.7739161251257</v>
       </c>
       <c r="C39" t="n">
-        <v>557.1196856852174</v>
+        <v>557.1196856852179</v>
       </c>
       <c r="D39" t="n">
-        <v>427.0307183066977</v>
+        <v>427.0307183066982</v>
       </c>
       <c r="E39" t="n">
-        <v>290.5842274175855</v>
+        <v>290.5842274175859</v>
       </c>
       <c r="F39" t="n">
-        <v>166.1524213007173</v>
+        <v>166.1524213007177</v>
       </c>
       <c r="G39" t="n">
-        <v>116.7644974543436</v>
+        <v>47.63438564571229</v>
       </c>
       <c r="H39" t="n">
-        <v>43.35745195596451</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="I39" t="n">
-        <v>46.979939963794</v>
+        <v>46.97993996379401</v>
       </c>
       <c r="J39" t="n">
         <v>302.8608101650162</v>
@@ -7295,10 +7295,10 @@
         <v>1228.191545140568</v>
       </c>
       <c r="X39" t="n">
-        <v>1038.884467490579</v>
+        <v>1038.88446749058</v>
       </c>
       <c r="Y39" t="n">
-        <v>859.5702505660865</v>
+        <v>859.570250566087</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>214.5260167906027</v>
+        <v>678.8367874158598</v>
       </c>
       <c r="C40" t="n">
-        <v>44.32089885659195</v>
+        <v>678.8367874158598</v>
       </c>
       <c r="D40" t="n">
-        <v>43.35745195596451</v>
+        <v>523.2036743183745</v>
       </c>
       <c r="E40" t="n">
-        <v>43.35745195596451</v>
+        <v>367.644862177577</v>
       </c>
       <c r="F40" t="n">
-        <v>43.35745195596451</v>
+        <v>210.31892739055</v>
       </c>
       <c r="G40" t="n">
-        <v>43.35745195596451</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="H40" t="n">
-        <v>43.35745195596451</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="I40" t="n">
-        <v>43.35745195596451</v>
+        <v>43.35745195596453</v>
       </c>
       <c r="J40" t="n">
-        <v>103.1504394814121</v>
+        <v>100.0771813085013</v>
       </c>
       <c r="K40" t="n">
-        <v>332.1711319955548</v>
+        <v>329.0978738226441</v>
       </c>
       <c r="L40" t="n">
-        <v>684.645731420552</v>
+        <v>681.5724732476413</v>
       </c>
       <c r="M40" t="n">
-        <v>1069.522770413169</v>
+        <v>1066.449512240259</v>
       </c>
       <c r="N40" t="n">
-        <v>1446.575946704701</v>
+        <v>1443.50268853179</v>
       </c>
       <c r="O40" t="n">
-        <v>1788.345072747388</v>
+        <v>1785.271814574478</v>
       </c>
       <c r="P40" t="n">
-        <v>2061.441731973222</v>
+        <v>2058.368473800312</v>
       </c>
       <c r="Q40" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="R40" t="n">
-        <v>2102.090636546101</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S40" t="n">
-        <v>1921.800670176493</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T40" t="n">
-        <v>1691.604453608413</v>
+        <v>2155.91522423367</v>
       </c>
       <c r="U40" t="n">
-        <v>1406.236166130276</v>
+        <v>1870.546936755533</v>
       </c>
       <c r="V40" t="n">
-        <v>1140.2568209511</v>
+        <v>1604.567591576357</v>
       </c>
       <c r="W40" t="n">
-        <v>856.9264188822776</v>
+        <v>1321.237189507535</v>
       </c>
       <c r="X40" t="n">
-        <v>622.8460966652607</v>
+        <v>1087.156867290518</v>
       </c>
       <c r="Y40" t="n">
-        <v>399.734035481904</v>
+        <v>864.0448061071611</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1466.684009218447</v>
+        <v>1273.116588859845</v>
       </c>
       <c r="C41" t="n">
-        <v>1466.684009218447</v>
+        <v>1273.116588859845</v>
       </c>
       <c r="D41" t="n">
         <v>1273.116588859845</v>
@@ -7411,16 +7411,16 @@
         <v>43.35745195596453</v>
       </c>
       <c r="J41" t="n">
-        <v>166.5581231323115</v>
+        <v>166.5581231323113</v>
       </c>
       <c r="K41" t="n">
-        <v>384.1840296061609</v>
+        <v>384.1840296061607</v>
       </c>
       <c r="L41" t="n">
-        <v>678.1543555936487</v>
+        <v>678.1543555936485</v>
       </c>
       <c r="M41" t="n">
-        <v>1025.838119611199</v>
+        <v>1025.838119611198</v>
       </c>
       <c r="N41" t="n">
         <v>1382.146745868978</v>
@@ -7438,25 +7438,25 @@
         <v>2167.872597798226</v>
       </c>
       <c r="S41" t="n">
-        <v>2067.023091689096</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T41" t="n">
-        <v>1856.13661428539</v>
+        <v>2070.102043650641</v>
       </c>
       <c r="U41" t="n">
-        <v>1856.13661428539</v>
+        <v>2070.102043650641</v>
       </c>
       <c r="V41" t="n">
-        <v>1856.13661428539</v>
+        <v>2070.102043650641</v>
       </c>
       <c r="W41" t="n">
-        <v>1856.13661428539</v>
+        <v>2070.102043650641</v>
       </c>
       <c r="X41" t="n">
-        <v>1466.684009218447</v>
+        <v>2070.102043650641</v>
       </c>
       <c r="Y41" t="n">
-        <v>1466.684009218447</v>
+        <v>1673.611334571242</v>
       </c>
     </row>
     <row r="42">
@@ -7487,46 +7487,46 @@
         <v>43.35745195596453</v>
       </c>
       <c r="I42" t="n">
-        <v>43.35745195596453</v>
+        <v>46.97993996379401</v>
       </c>
       <c r="J42" t="n">
-        <v>276.2717054591292</v>
+        <v>302.8608101650162</v>
       </c>
       <c r="K42" t="n">
-        <v>431.5803814555786</v>
+        <v>458.1694861614656</v>
       </c>
       <c r="L42" t="n">
-        <v>670.5217143647044</v>
+        <v>697.1108190705913</v>
       </c>
       <c r="M42" t="n">
-        <v>961.9369440470483</v>
+        <v>988.5260487529353</v>
       </c>
       <c r="N42" t="n">
-        <v>1270.430686921241</v>
+        <v>1297.019791627127</v>
       </c>
       <c r="O42" t="n">
-        <v>1538.199325627283</v>
+        <v>1564.788430333169</v>
       </c>
       <c r="P42" t="n">
-        <v>1740.540772030941</v>
+        <v>1767.129876736827</v>
       </c>
       <c r="Q42" t="n">
-        <v>2167.796555931285</v>
+        <v>2097.492889074681</v>
       </c>
       <c r="R42" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="S42" t="n">
-        <v>2130.709962009823</v>
+        <v>2061.579850201192</v>
       </c>
       <c r="T42" t="n">
-        <v>1959.940614721919</v>
+        <v>1890.810502913287</v>
       </c>
       <c r="U42" t="n">
-        <v>1749.978904444846</v>
+        <v>1680.848792636214</v>
       </c>
       <c r="V42" t="n">
-        <v>1527.438902815913</v>
+        <v>1458.308791007281</v>
       </c>
       <c r="W42" t="n">
         <v>1297.321656949199</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.1956829874606</v>
+        <v>526.4473168177999</v>
       </c>
       <c r="C43" t="n">
-        <v>198.9905650534498</v>
+        <v>356.2421988837891</v>
       </c>
       <c r="D43" t="n">
-        <v>43.35745195596453</v>
+        <v>356.2421988837891</v>
       </c>
       <c r="E43" t="n">
-        <v>43.35745195596453</v>
+        <v>200.6833867429916</v>
       </c>
       <c r="F43" t="n">
         <v>43.35745195596453</v>
@@ -7572,49 +7572,49 @@
         <v>103.1504394814121</v>
       </c>
       <c r="K43" t="n">
-        <v>332.1711319955548</v>
+        <v>329.0978738226441</v>
       </c>
       <c r="L43" t="n">
-        <v>684.645731420552</v>
+        <v>681.5724732476413</v>
       </c>
       <c r="M43" t="n">
-        <v>1069.522770413169</v>
+        <v>1066.449512240259</v>
       </c>
       <c r="N43" t="n">
-        <v>1446.575946704701</v>
+        <v>1443.50268853179</v>
       </c>
       <c r="O43" t="n">
-        <v>1788.345072747388</v>
+        <v>1785.271814574478</v>
       </c>
       <c r="P43" t="n">
-        <v>2061.441731973222</v>
+        <v>2058.368473800312</v>
       </c>
       <c r="Q43" t="n">
         <v>2167.872597798226</v>
       </c>
       <c r="R43" t="n">
-        <v>2102.090636546102</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S43" t="n">
-        <v>1921.800670176493</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T43" t="n">
-        <v>1691.604453608413</v>
+        <v>1937.676381230146</v>
       </c>
       <c r="U43" t="n">
-        <v>1406.236166130276</v>
+        <v>1652.308093752009</v>
       </c>
       <c r="V43" t="n">
-        <v>1140.256820951101</v>
+        <v>1386.328748572833</v>
       </c>
       <c r="W43" t="n">
-        <v>856.9264188822781</v>
+        <v>1102.998346504011</v>
       </c>
       <c r="X43" t="n">
-        <v>622.8460966652611</v>
+        <v>868.918024286994</v>
       </c>
       <c r="Y43" t="n">
-        <v>399.7340354819045</v>
+        <v>645.8059631036373</v>
       </c>
     </row>
     <row r="44">
@@ -7654,46 +7654,46 @@
         <v>384.1840296061603</v>
       </c>
       <c r="L44" t="n">
-        <v>678.1543555936476</v>
+        <v>678.1543555936478</v>
       </c>
       <c r="M44" t="n">
-        <v>1025.838119611197</v>
+        <v>1025.838119611198</v>
       </c>
       <c r="N44" t="n">
         <v>1382.146745868977</v>
       </c>
       <c r="O44" t="n">
-        <v>1709.930958110257</v>
+        <v>1709.930958110258</v>
       </c>
       <c r="P44" t="n">
         <v>1967.261549144099</v>
       </c>
       <c r="Q44" t="n">
-        <v>2129.19382092726</v>
+        <v>2129.193820927261</v>
       </c>
       <c r="R44" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S44" t="n">
-        <v>2067.023091689096</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="T44" t="n">
-        <v>1856.136614285389</v>
+        <v>2066.786836068311</v>
       </c>
       <c r="U44" t="n">
-        <v>1666.292090356915</v>
+        <v>2066.786836068311</v>
       </c>
       <c r="V44" t="n">
-        <v>1666.292090356915</v>
+        <v>2066.786836068311</v>
       </c>
       <c r="W44" t="n">
-        <v>1666.292090356915</v>
+        <v>2066.786836068311</v>
       </c>
       <c r="X44" t="n">
-        <v>1666.292090356915</v>
+        <v>2066.786836068311</v>
       </c>
       <c r="Y44" t="n">
-        <v>1666.292090356915</v>
+        <v>2066.786836068311</v>
       </c>
     </row>
     <row r="45">
@@ -7724,49 +7724,49 @@
         <v>43.35745195596451</v>
       </c>
       <c r="I45" t="n">
-        <v>43.35745195596451</v>
+        <v>46.979939963794</v>
       </c>
       <c r="J45" t="n">
-        <v>299.2383221571868</v>
+        <v>108.1258151852888</v>
       </c>
       <c r="K45" t="n">
-        <v>454.5469981536361</v>
+        <v>431.5803814555785</v>
       </c>
       <c r="L45" t="n">
-        <v>693.4883310627617</v>
+        <v>670.5217143647042</v>
       </c>
       <c r="M45" t="n">
-        <v>984.9035607451056</v>
+        <v>961.9369440470481</v>
       </c>
       <c r="N45" t="n">
-        <v>1293.397303619298</v>
+        <v>1270.43068692124</v>
       </c>
       <c r="O45" t="n">
-        <v>1561.16594232534</v>
+        <v>1538.199325627282</v>
       </c>
       <c r="P45" t="n">
-        <v>1763.507388728998</v>
+        <v>1740.54077203094</v>
       </c>
       <c r="Q45" t="n">
-        <v>2097.492889074681</v>
+        <v>2167.796555931285</v>
       </c>
       <c r="R45" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S45" t="n">
-        <v>2061.579850201191</v>
+        <v>2130.709962009823</v>
       </c>
       <c r="T45" t="n">
-        <v>1890.810502913286</v>
+        <v>1959.940614721919</v>
       </c>
       <c r="U45" t="n">
-        <v>1680.848792636213</v>
+        <v>1749.978904444846</v>
       </c>
       <c r="V45" t="n">
-        <v>1458.30879100728</v>
+        <v>1527.438902815913</v>
       </c>
       <c r="W45" t="n">
-        <v>1228.191545140567</v>
+        <v>1297.321656949199</v>
       </c>
       <c r="X45" t="n">
         <v>1108.014579299211</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>943.2649710271055</v>
+        <v>280.3079780427271</v>
       </c>
       <c r="C46" t="n">
-        <v>773.0598530930947</v>
+        <v>110.1028601087163</v>
       </c>
       <c r="D46" t="n">
-        <v>617.4267399956095</v>
+        <v>110.1028601087163</v>
       </c>
       <c r="E46" t="n">
-        <v>461.8679278548121</v>
+        <v>110.1028601087163</v>
       </c>
       <c r="F46" t="n">
-        <v>304.541993067785</v>
+        <v>110.1028601087163</v>
       </c>
       <c r="G46" t="n">
-        <v>137.5805176331996</v>
+        <v>110.1028601087163</v>
       </c>
       <c r="H46" t="n">
-        <v>137.5805176331996</v>
+        <v>110.1028601087163</v>
       </c>
       <c r="I46" t="n">
         <v>43.35745195596451</v>
@@ -7812,13 +7812,13 @@
         <v>332.1711319955548</v>
       </c>
       <c r="L46" t="n">
-        <v>684.6457314205519</v>
+        <v>681.5724732476408</v>
       </c>
       <c r="M46" t="n">
         <v>1066.449512240258</v>
       </c>
       <c r="N46" t="n">
-        <v>1443.502688531789</v>
+        <v>1443.50268853179</v>
       </c>
       <c r="O46" t="n">
         <v>1785.271814574477</v>
@@ -7827,31 +7827,31 @@
         <v>2058.368473800311</v>
       </c>
       <c r="Q46" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="R46" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798226</v>
       </c>
       <c r="S46" t="n">
-        <v>2167.872597798225</v>
+        <v>1987.582631428617</v>
       </c>
       <c r="T46" t="n">
-        <v>2167.872597798225</v>
+        <v>1757.386414860537</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.504310320088</v>
+        <v>1472.0181273824</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.524965140913</v>
+        <v>1206.038782203224</v>
       </c>
       <c r="W46" t="n">
-        <v>1333.19456307209</v>
+        <v>922.708380134402</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.19456307209</v>
+        <v>688.628057917385</v>
       </c>
       <c r="Y46" t="n">
-        <v>1128.472989718407</v>
+        <v>465.5159967340284</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083158</v>
+        <v>50.10311736083149</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>9.996493671228038</v>
+        <v>9.996493671227967</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850114</v>
+        <v>47.0813821585011</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.09549975836526</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>67.9741977182334</v>
+        <v>109.8862497239044</v>
       </c>
       <c r="L13" t="n">
-        <v>113.9881414229082</v>
+        <v>113.9881414229084</v>
       </c>
       <c r="M13" t="n">
-        <v>111.4192326297102</v>
+        <v>111.4192326297104</v>
       </c>
       <c r="N13" t="n">
-        <v>106.5092612162223</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.76994589361108</v>
+        <v>11.76994589361101</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853822</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083158</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671228038</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850114</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>37.09549975836521</v>
       </c>
       <c r="K16" t="n">
-        <v>95.37511153182923</v>
+        <v>118.2310284435983</v>
       </c>
       <c r="L16" t="n">
-        <v>113.9881414229082</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>111.4192326297102</v>
+        <v>111.4192326297104</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O16" t="n">
-        <v>121.0203994082974</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P16" t="n">
-        <v>11.76994589361108</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.64592635853828</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>131.0594330892262</v>
+        <v>131.0594330892264</v>
       </c>
       <c r="L19" t="n">
-        <v>113.9881414229082</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>111.4192326297102</v>
+        <v>25.92470256824514</v>
       </c>
       <c r="N19" t="n">
-        <v>85.33607785090028</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.64592635853825</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.09549975836525</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>9.16780143111859</v>
+        <v>131.0594330892264</v>
       </c>
       <c r="L22" t="n">
-        <v>51.77413830172559</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>111.4192326297103</v>
+        <v>111.4192326297104</v>
       </c>
       <c r="N22" t="n">
-        <v>106.5092612162224</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>121.0203994082974</v>
+        <v>20.14349890494697</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361107</v>
+        <v>133.6615775517189</v>
       </c>
       <c r="Q22" t="n">
         <v>101.9350150692923</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>12.13708675600513</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>98.83052870427943</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>304.5219661426141</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>163.4159743128996</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
         <v>253.4605344048249</v>
@@ -9807,7 +9807,7 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N25" t="n">
-        <v>268.0356382773604</v>
+        <v>264.9313370926021</v>
       </c>
       <c r="O25" t="n">
         <v>254.3449995307766</v>
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>70.50457918433301</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>230.3583081624937</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>229.8490824411666</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>169.8443336099398</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>247.609331588603</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>230.3583081624936</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.5972627267675</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.36823527869005</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
         <v>166.520275497658</v>
@@ -10290,7 +10290,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>98.83071388453412</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.79616555179249</v>
+        <v>12.13708675600513</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>163.6411312217294</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>169.8443336099397</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>337.5828500519223</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.4725364634484</v>
+        <v>49.36823527869005</v>
       </c>
       <c r="K34" t="n">
         <v>166.520275497658</v>
@@ -10527,7 +10527,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.83071388453413</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>300.8628873468269</v>
+        <v>229.8490824411666</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>250.3562332200665</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
@@ -10764,7 +10764,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.83071388453413</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>300.8628873468264</v>
+        <v>300.8628873468269</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>49.36823527869005</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
@@ -11001,7 +11001,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.83071388453365</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>12.13708675600513</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>173.5034124057271</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>229.8490824411666</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>163.4159743128996</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
@@ -11238,7 +11238,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>98.83071388453413</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>12.13708675600513</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>169.8443336099397</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>233.5081612369531</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>250.3562332200662</v>
       </c>
       <c r="M46" t="n">
-        <v>275.3707698339761</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.5981665961753</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>267.3521148239911</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,7 +23269,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G11" t="n">
         <v>407.5979401715768</v>
@@ -23278,7 +23278,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7007736456796</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>214.9918168860265</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888155</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>231.3235920390554</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>278.1959298518126</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>270.6341703304973</v>
+        <v>270.634170330497</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.38673943844411</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -23345,19 +23345,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>13.19039432211353</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0923966805213</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H12" t="n">
         <v>80.00854575966319</v>
       </c>
       <c r="I12" t="n">
-        <v>22.49179773586702</v>
+        <v>22.491797735867</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>172.1231385962474</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9120630020701</v>
+        <v>100.5499138376086</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W12" t="n">
-        <v>105.9244417499384</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>80.05185770902733</v>
+        <v>65.52237521538056</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309713994</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>61.46430684628037</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23430,13 +23430,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9286346603149</v>
+        <v>44.03700300220704</v>
       </c>
       <c r="H13" t="n">
         <v>148.207989438968</v>
       </c>
       <c r="I13" t="n">
-        <v>98.8240314187147</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S13" t="n">
-        <v>67.6926688642091</v>
+        <v>67.69266886420881</v>
       </c>
       <c r="T13" t="n">
-        <v>108.7233842955227</v>
+        <v>123.2528667891689</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6577060714341</v>
+        <v>282.5493377295417</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.5981665961753</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>281.8815973176376</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>276.6660579765133</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23512,10 +23512,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H14" t="n">
-        <v>306.1645855229701</v>
+        <v>184.2729538648622</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7007736456796</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>132.189652850835</v>
       </c>
       <c r="T14" t="n">
-        <v>214.9918168860265</v>
+        <v>93.1001852279186</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0805472469234</v>
+        <v>145.718398082462</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454089</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>270.6341703304973</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>119.2404212333551</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>6.896446046626565</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>13.19039432211325</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0923966805213</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.49179773586702</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>172.1231385962474</v>
       </c>
       <c r="U15" t="n">
-        <v>86.02043134396246</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V15" t="n">
-        <v>98.42296995453601</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>105.9244417499384</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>80.05185770902735</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>61.46430684628037</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>32.18515030840278</v>
+        <v>32.1851503084025</v>
       </c>
       <c r="E16" t="n">
-        <v>32.11159236128189</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>33.86104378104916</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>165.9286346603149</v>
@@ -23673,7 +23673,7 @@
         <v>148.207989438968</v>
       </c>
       <c r="I16" t="n">
-        <v>112.4303652576384</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S16" t="n">
         <v>189.5843005223167</v>
@@ -23709,7 +23709,7 @@
         <v>230.6150159536303</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5493377295417</v>
+        <v>175.1871885650802</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23718,10 +23718,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>109.8478873367388</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.5187914070619</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>289.1276490898215</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23743,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>305.3633449208609</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.5979401715768</v>
+        <v>285.7063085134689</v>
       </c>
       <c r="H17" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>245.3974130232878</v>
+        <v>245.3974130232875</v>
       </c>
       <c r="X17" t="n">
-        <v>263.6664473581661</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.6341703304973</v>
+        <v>270.634170330497</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I18" t="n">
-        <v>22.49179773586701</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>62.20732593443111</v>
+        <v>64.76098943178596</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9120630020701</v>
+        <v>86.02043134396216</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>65.52237521538085</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>55.62944309714022</v>
+        <v>55.62944309713994</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.99378933992715</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S19" t="n">
-        <v>67.6926688642091</v>
+        <v>189.5843005223167</v>
       </c>
       <c r="T19" t="n">
-        <v>230.6150159536303</v>
+        <v>123.2528667891689</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>141.4279200692761</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>158.6054663900263</v>
       </c>
       <c r="X19" t="n">
-        <v>109.8478873367391</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.98930891341546</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>267.3521148239908</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>259.695085837391</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23989,7 +23989,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>132.189652850835</v>
       </c>
       <c r="T20" t="n">
-        <v>93.10018522791886</v>
+        <v>107.6296677215651</v>
       </c>
       <c r="U20" t="n">
         <v>253.0805472469234</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>259.9268955169342</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581661</v>
+        <v>263.6664473581658</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.6341703304972</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>27.25605647740103</v>
+        <v>37.98630399346067</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I21" t="n">
-        <v>22.49179773586701</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>116.6546892659984</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X21" t="n">
-        <v>65.52237521538079</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309713994</v>
       </c>
     </row>
     <row r="22">
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553741</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T22" t="n">
-        <v>108.7233842955226</v>
+        <v>108.7233842955224</v>
       </c>
       <c r="U22" t="n">
-        <v>160.657706071434</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V22" t="n">
-        <v>141.4279200692764</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>173.134948883673</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>109.8478873367388</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>207.2746067325991</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.1783618148989</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>291.6263286776431</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>99.84101104803869</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U23" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>29.26425827079993</v>
+        <v>176.4650605089767</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>122.8691321229093</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.5464898706615</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>93.28083502046273</v>
@@ -24414,16 +24414,16 @@
         <v>65.12414163960315</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5146046033557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.21243170333167</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>26.97247904985709</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>99.84101104803869</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>123.2205102985474</v>
       </c>
       <c r="U26" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>58.56410918974171</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>68.43881069054498</v>
       </c>
       <c r="T27" t="n">
-        <v>68.43881069054507</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H28" t="n">
-        <v>142.5464898706615</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>51.75069185844156</v>
+        <v>1.246304065228884</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.12414163960315</v>
       </c>
       <c r="S28" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>227.8942544023992</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>406.1783618148989</v>
+        <v>379.8139186750764</v>
       </c>
       <c r="H29" t="n">
-        <v>36.15471244803192</v>
+        <v>291.6263286776431</v>
       </c>
       <c r="I29" t="n">
         <v>26.97247904985709</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7776126296693</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>68.43881069054507</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.43881069054508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,19 +24840,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.12414163960315</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>43.90461524000662</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.313520901162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>64.0067918923362</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>406.1783618148989</v>
       </c>
       <c r="H32" t="n">
         <v>291.6263286776431</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>26.97247904985709</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>99.84101104803869</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>48.87842297875005</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.5464898706615</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>40.63358655782492</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.12414163960315</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.8942544023992</v>
       </c>
       <c r="U34" t="n">
-        <v>177.6349149186189</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>375.9626810300993</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>291.6263286776431</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>26.97247904985709</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>99.84101104803869</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>54.18070697279387</v>
       </c>
     </row>
     <row r="36">
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>68.43881069054501</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>68.43881069054501</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>93.28083502046273</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.12414163960315</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>74.48555163245084</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.8804969502946</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>48.3467376757132</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>406.1783618148989</v>
       </c>
       <c r="H38" t="n">
         <v>291.6263286776431</v>
       </c>
       <c r="I38" t="n">
-        <v>26.97247904985709</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>99.84101104803869</v>
       </c>
       <c r="T38" t="n">
-        <v>47.21298400046311</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U38" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>68.43881069054544</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>68.43881069054501</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>153.1229695348892</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.5464898706615</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.12414163960315</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>216.0564545734885</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>189.9549713404832</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>99.84101104803869</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>111.9847640235599</v>
       </c>
       <c r="U41" t="n">
         <v>252.9669809783891</v>
@@ -25693,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>68.43881069054497</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>68.43881069054518</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.1229695348888</v>
+        <v>65.19087868140926</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.2918606802396</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.12414163960315</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>99.84101104803871</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>108.7027085170541</v>
       </c>
       <c r="U44" t="n">
-        <v>65.02090228919944</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>68.43881069054542</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>68.43881069054611</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H46" t="n">
         <v>142.5464898706615</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>27.20288094923848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>65.12414163960315</v>
       </c>
       <c r="S46" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>227.8942544023992</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.2065829513765</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>312799.5582722407</v>
+        <v>312799.5582722411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>312799.5582722407</v>
+        <v>312799.558272241</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>312799.5582722408</v>
+        <v>312799.558272241</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>312799.5582722407</v>
+        <v>312799.558272241</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648153.6506138975</v>
+        <v>648153.6506138974</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648153.6506138975</v>
+        <v>648153.6506138978</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648153.6506138974</v>
+        <v>648153.6506138976</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648153.6506138975</v>
+        <v>648153.6506138974</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648153.6506138974</v>
+        <v>648153.6506138972</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>648153.6506138975</v>
+        <v>648153.6506138972</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648153.6506138972</v>
+        <v>648153.6506138975</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67631.09162196002</v>
+        <v>67631.09162196</v>
       </c>
       <c r="C2" t="n">
-        <v>67631.09162196002</v>
+        <v>67631.09162196</v>
       </c>
       <c r="D2" t="n">
-        <v>67631.09162196002</v>
+        <v>67631.09162196</v>
       </c>
       <c r="E2" t="n">
-        <v>106520.5016431843</v>
+        <v>106520.5016431844</v>
       </c>
       <c r="F2" t="n">
         <v>106520.5016431844</v>
@@ -26334,28 +26334,28 @@
         <v>106520.5016431844</v>
       </c>
       <c r="I2" t="n">
-        <v>219189.9888158191</v>
+        <v>219189.988815819</v>
       </c>
       <c r="J2" t="n">
         <v>219189.9888158191</v>
       </c>
       <c r="K2" t="n">
-        <v>219189.988815819</v>
+        <v>219189.9888158191</v>
       </c>
       <c r="L2" t="n">
         <v>219189.9888158191</v>
       </c>
       <c r="M2" t="n">
+        <v>219189.988815819</v>
+      </c>
+      <c r="N2" t="n">
         <v>219189.9888158191</v>
-      </c>
-      <c r="N2" t="n">
-        <v>219189.988815819</v>
       </c>
       <c r="O2" t="n">
         <v>219189.9888158191</v>
       </c>
       <c r="P2" t="n">
-        <v>219189.9888158189</v>
+        <v>219189.988815819</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322811.7169577269</v>
+        <v>322811.7169577272</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>377517.9820548284</v>
+        <v>377517.9820548281</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30375.88217572705</v>
+        <v>30375.88217572712</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37572.82867886667</v>
+        <v>37572.82867886668</v>
       </c>
       <c r="C4" t="n">
-        <v>37572.82867886667</v>
+        <v>37572.82867886668</v>
       </c>
       <c r="D4" t="n">
-        <v>37572.82867886667</v>
+        <v>37572.82867886668</v>
       </c>
       <c r="E4" t="n">
         <v>5179.363149451354</v>
@@ -26432,10 +26432,10 @@
         <v>5179.363149451353</v>
       </c>
       <c r="G4" t="n">
-        <v>5179.363149451351</v>
+        <v>5179.363149451354</v>
       </c>
       <c r="H4" t="n">
-        <v>5179.363149451352</v>
+        <v>5179.363149451354</v>
       </c>
       <c r="I4" t="n">
         <v>15408.09587015686</v>
@@ -26444,7 +26444,7 @@
         <v>15408.09587015686</v>
       </c>
       <c r="K4" t="n">
-        <v>15408.09587015685</v>
+        <v>15408.09587015686</v>
       </c>
       <c r="L4" t="n">
         <v>15408.09587015686</v>
@@ -26453,13 +26453,13 @@
         <v>15408.09587015686</v>
       </c>
       <c r="N4" t="n">
-        <v>15408.09587015685</v>
+        <v>15408.09587015686</v>
       </c>
       <c r="O4" t="n">
         <v>15408.09587015686</v>
       </c>
       <c r="P4" t="n">
-        <v>15408.09587015685</v>
+        <v>15408.09587015686</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="G5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="I5" t="n">
         <v>48421.50108294365</v>
@@ -26505,7 +26505,7 @@
         <v>48421.50108294365</v>
       </c>
       <c r="N5" t="n">
-        <v>48421.50108294364</v>
+        <v>48421.50108294365</v>
       </c>
       <c r="O5" t="n">
         <v>48421.50108294365</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-4996.930551051577</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-4996.930551051577</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-4996.930551051577</v>
       </c>
       <c r="E6" t="n">
-        <v>-236653.4087315427</v>
+        <v>-237864.9499477921</v>
       </c>
       <c r="F6" t="n">
-        <v>86158.30822618421</v>
+        <v>84946.76700993502</v>
       </c>
       <c r="G6" t="n">
-        <v>86158.30822618421</v>
+        <v>84946.76700993502</v>
       </c>
       <c r="H6" t="n">
-        <v>86158.30822618425</v>
+        <v>84946.76700993502</v>
       </c>
       <c r="I6" t="n">
-        <v>-222157.5901921099</v>
+        <v>-222743.1898129553</v>
       </c>
       <c r="J6" t="n">
-        <v>155360.3918627186</v>
+        <v>154774.7922418729</v>
       </c>
       <c r="K6" t="n">
-        <v>155360.3918627185</v>
+        <v>154774.7922418729</v>
       </c>
       <c r="L6" t="n">
-        <v>155360.3918627186</v>
+        <v>154774.7922418729</v>
       </c>
       <c r="M6" t="n">
-        <v>124984.5096869915</v>
+        <v>124398.9100661457</v>
       </c>
       <c r="N6" t="n">
-        <v>155360.3918627185</v>
+        <v>154774.7922418729</v>
       </c>
       <c r="O6" t="n">
-        <v>155360.3918627186</v>
+        <v>154774.7922418729</v>
       </c>
       <c r="P6" t="n">
-        <v>155360.3918627184</v>
+        <v>154774.7922418728</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933876</v>
+        <v>356.5054615933879</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933876</v>
+        <v>356.505461593388</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="H3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="I3" t="n">
         <v>709.6255778170008</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="I4" t="n">
         <v>541.9681494495566</v>
@@ -26825,13 +26825,13 @@
         <v>541.9681494495566</v>
       </c>
       <c r="N4" t="n">
-        <v>541.9681494495564</v>
+        <v>541.9681494495566</v>
       </c>
       <c r="O4" t="n">
         <v>541.9681494495566</v>
       </c>
       <c r="P4" t="n">
-        <v>541.9681494495563</v>
+        <v>541.9681494495564</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933876</v>
+        <v>356.5054615933879</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>353.1201162236131</v>
+        <v>353.1201162236129</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>420.0765177914489</v>
+        <v>420.0765177914487</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.433187785300049</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67763440620413</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I11" t="n">
-        <v>55.25297209278021</v>
+        <v>55.25297209278026</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K11" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L11" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M11" t="n">
-        <v>251.6552347055675</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N11" t="n">
-        <v>255.7272795005513</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O11" t="n">
-        <v>241.4760184604739</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P11" t="n">
-        <v>206.0941950108789</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.7681574498208</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R11" t="n">
-        <v>90.02748221835431</v>
+        <v>90.02748221835439</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T11" t="n">
-        <v>6.27377953015097</v>
+        <v>6.273779530150976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7668230683329469</v>
+        <v>0.7668230683329476</v>
       </c>
       <c r="H12" t="n">
-        <v>7.405896475741883</v>
+        <v>7.40589647574189</v>
       </c>
       <c r="I12" t="n">
-        <v>26.4015837123405</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J12" t="n">
-        <v>72.44796366210531</v>
+        <v>72.44796366210538</v>
       </c>
       <c r="K12" t="n">
-        <v>123.8251092404127</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4981403413269</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M12" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O12" t="n">
-        <v>182.4467148590235</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P12" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.88429202088635</v>
+        <v>97.88429202088645</v>
       </c>
       <c r="R12" t="n">
-        <v>47.61029541807544</v>
+        <v>47.61029541807548</v>
       </c>
       <c r="S12" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T12" t="n">
-        <v>3.090835086833236</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U12" t="n">
-        <v>0.050448886074536</v>
+        <v>0.05044888607453605</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6428787012339775</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H13" t="n">
-        <v>5.715776089153004</v>
+        <v>5.715776089153009</v>
       </c>
       <c r="I13" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J13" t="n">
-        <v>45.45152417724221</v>
+        <v>45.45152417724225</v>
       </c>
       <c r="K13" t="n">
-        <v>74.69081637972937</v>
+        <v>74.69081637972944</v>
       </c>
       <c r="L13" t="n">
-        <v>95.57852981800427</v>
+        <v>95.57852981800437</v>
       </c>
       <c r="M13" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N13" t="n">
-        <v>98.37797434428683</v>
+        <v>98.37797434428693</v>
       </c>
       <c r="O13" t="n">
-        <v>90.86798224350805</v>
+        <v>90.86798224350814</v>
       </c>
       <c r="P13" t="n">
-        <v>77.75325673833485</v>
+        <v>77.75325673833493</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.83232470060152</v>
+        <v>53.83232470060157</v>
       </c>
       <c r="R13" t="n">
-        <v>28.90616414821138</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S13" t="n">
-        <v>11.2036224569594</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T13" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03506611097639881</v>
+        <v>0.03506611097639885</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.433187785300049</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620413</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278021</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055675</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005513</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O14" t="n">
-        <v>241.4760184604739</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P14" t="n">
-        <v>206.0941950108789</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.7681574498208</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835431</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T14" t="n">
-        <v>6.27377953015097</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329469</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741883</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I15" t="n">
-        <v>26.4015837123405</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210531</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K15" t="n">
-        <v>123.8251092404127</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4981403413269</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590235</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P15" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088635</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807544</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833236</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U15" t="n">
-        <v>0.050448886074536</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339775</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153004</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I16" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724221</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K16" t="n">
-        <v>74.69081637972937</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L16" t="n">
-        <v>95.57852981800427</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428683</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350805</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833485</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060152</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821138</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S16" t="n">
-        <v>11.2036224569594</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639881</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J17" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K17" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L17" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M17" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N17" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O17" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P17" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U17" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I18" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K18" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L18" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O18" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P18" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S18" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I19" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K19" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L19" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M19" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S19" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L20" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M20" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N20" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O20" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P20" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U20" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I21" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L21" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S21" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K22" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L22" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.960183850264087</v>
+        <v>3.960183850264201</v>
       </c>
       <c r="K11" t="n">
-        <v>39.24845756512394</v>
+        <v>39.24845756512411</v>
       </c>
       <c r="L11" t="n">
-        <v>72.91961169824606</v>
+        <v>72.91961169824626</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9301831078408</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O11" t="n">
-        <v>91.91218103637749</v>
+        <v>91.91218103637772</v>
       </c>
       <c r="P11" t="n">
-        <v>55.79274776995368</v>
+        <v>55.79274776995388</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.26945903142865</v>
+        <v>10.2694590314288</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.22817390707939</v>
+        <v>34.22817390707951</v>
       </c>
       <c r="L12" t="n">
-        <v>76.43779348440869</v>
+        <v>76.43779348440886</v>
       </c>
       <c r="M12" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N12" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O12" t="n">
-        <v>89.75915597013464</v>
+        <v>89.75915597013481</v>
       </c>
       <c r="P12" t="n">
-        <v>59.34620864156184</v>
+        <v>59.34620864156199</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.896138864972357</v>
+        <v>6.896138864972457</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>15.37703670508318</v>
       </c>
       <c r="K13" t="n">
-        <v>58.80639628711478</v>
+        <v>100.7184482927858</v>
       </c>
       <c r="L13" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="M13" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N13" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O13" t="n">
-        <v>0.871232249810248</v>
+        <v>0.8712322498103333</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.289088710754</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264087</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K14" t="n">
-        <v>39.24845756512394</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824606</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078402</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637749</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995368</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142865</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707939</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440869</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O15" t="n">
-        <v>89.75915597013464</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P15" t="n">
-        <v>59.34620864156184</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972357</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.37703670508314</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>86.20731010071061</v>
+        <v>109.0632270124798</v>
       </c>
       <c r="L16" t="n">
-        <v>121.8916316581076</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M16" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N16" t="n">
-        <v>15.38237044188526</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O16" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K17" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N18" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O18" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P18" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.37703670508315</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K19" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="L19" t="n">
-        <v>121.8916316581076</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M19" t="n">
-        <v>121.8916316581076</v>
+        <v>36.39710159664264</v>
       </c>
       <c r="N19" t="n">
-        <v>100.7184482927856</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8712322498102765</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>57.28908871075406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K20" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O21" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P21" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="L22" t="n">
-        <v>59.677628536925</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M22" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N22" t="n">
-        <v>121.8916316581077</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O22" t="n">
-        <v>121.8916316581077</v>
+        <v>21.01473115475731</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.28908871075402</v>
+        <v>57.28908871075406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>259.9298899331732</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.567951296123</v>
+        <v>163.5679512961234</v>
       </c>
       <c r="R23" t="n">
         <v>39.06947158683295</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.659078795787359</v>
       </c>
       <c r="J24" t="n">
-        <v>258.46552545578</v>
+        <v>61.76351032474228</v>
       </c>
       <c r="K24" t="n">
-        <v>156.877450501464</v>
+        <v>255.7079792057434</v>
       </c>
       <c r="L24" t="n">
         <v>241.3548817263896</v>
@@ -36457,10 +36457,10 @@
         <v>204.3852993976343</v>
       </c>
       <c r="Q24" t="n">
-        <v>408.3728961639265</v>
+        <v>431.571498889237</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07680996660707251</v>
+        <v>71.09061487226755</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>60.39695709641166</v>
       </c>
       <c r="K25" t="n">
-        <v>228.2297316578101</v>
+        <v>231.3340328425685</v>
       </c>
       <c r="L25" t="n">
         <v>356.0349489141386</v>
@@ -36527,7 +36527,7 @@
         <v>388.7646858511287</v>
       </c>
       <c r="N25" t="n">
-        <v>380.86179423387</v>
+        <v>377.7574930491118</v>
       </c>
       <c r="O25" t="n">
         <v>345.2213394370581</v>
@@ -36600,7 +36600,7 @@
         <v>219.824147953383</v>
       </c>
       <c r="L26" t="n">
-        <v>296.9397232196847</v>
+        <v>296.939723219685</v>
       </c>
       <c r="M26" t="n">
         <v>351.1957212298484</v>
@@ -36618,7 +36618,7 @@
         <v>163.567951296123</v>
       </c>
       <c r="R26" t="n">
-        <v>39.0694715868334</v>
+        <v>39.06947158683295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>241.3548817263896</v>
       </c>
       <c r="M27" t="n">
-        <v>364.8633970452865</v>
+        <v>294.3588178609535</v>
       </c>
       <c r="N27" t="n">
-        <v>541.9681494495566</v>
+        <v>311.6098412870629</v>
       </c>
       <c r="O27" t="n">
         <v>270.4733724303455</v>
@@ -36694,10 +36694,10 @@
         <v>204.3852993976343</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.8509300213124</v>
+        <v>333.7000124624789</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07680996660707251</v>
+        <v>71.09061487226755</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>259.9298899331732</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.5679512961234</v>
+        <v>163.567951296123</v>
       </c>
       <c r="R29" t="n">
         <v>39.06947158683295</v>
@@ -36910,7 +36910,7 @@
         <v>3.659078795787359</v>
       </c>
       <c r="J30" t="n">
-        <v>61.76351032474228</v>
+        <v>231.6078439346821</v>
       </c>
       <c r="K30" t="n">
         <v>156.877450501464</v>
@@ -36919,10 +36919,10 @@
         <v>241.3548817263896</v>
       </c>
       <c r="M30" t="n">
-        <v>541.9681494495566</v>
+        <v>294.3588178609535</v>
       </c>
       <c r="N30" t="n">
-        <v>541.9681494495566</v>
+        <v>311.6098412870629</v>
       </c>
       <c r="O30" t="n">
         <v>270.4733724303455</v>
@@ -36931,7 +36931,7 @@
         <v>204.3852993976343</v>
       </c>
       <c r="Q30" t="n">
-        <v>123.4481927480799</v>
+        <v>431.571498889237</v>
       </c>
       <c r="R30" t="n">
         <v>0.07680996660707251</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.29265591165331</v>
+        <v>60.39695709641166</v>
       </c>
       <c r="K31" t="n">
         <v>231.3340328425685</v>
@@ -37010,7 +37010,7 @@
         <v>275.8552113392266</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.6102262605196</v>
+        <v>107.5059250757614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>359.9077032906863</v>
       </c>
       <c r="O32" t="n">
-        <v>331.0951638800813</v>
+        <v>331.0951638800818</v>
       </c>
       <c r="P32" t="n">
         <v>259.9298899331732</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.659078795787359</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>61.76351032474228</v>
       </c>
       <c r="K33" t="n">
-        <v>156.877450501464</v>
+        <v>320.5185817231934</v>
       </c>
       <c r="L33" t="n">
         <v>241.3548817263896</v>
@@ -37159,16 +37159,16 @@
         <v>294.3588178609535</v>
       </c>
       <c r="N33" t="n">
-        <v>481.4541748970026</v>
+        <v>311.6098412870629</v>
       </c>
       <c r="O33" t="n">
         <v>270.4733724303455</v>
       </c>
       <c r="P33" t="n">
-        <v>204.3852993976343</v>
+        <v>541.9681494495566</v>
       </c>
       <c r="Q33" t="n">
-        <v>431.571498889237</v>
+        <v>103.8509300213124</v>
       </c>
       <c r="R33" t="n">
         <v>0.07680996660707251</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.39695709641166</v>
+        <v>57.29265591165331</v>
       </c>
       <c r="K34" t="n">
         <v>231.3340328425685</v>
@@ -37247,7 +37247,7 @@
         <v>275.8552113392266</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.5059250757614</v>
+        <v>110.6102262605196</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>204.3852993976343</v>
       </c>
       <c r="Q36" t="n">
-        <v>404.7138173681392</v>
+        <v>333.7000124624789</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07680996660707251</v>
+        <v>71.09061487226755</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>231.3340328425685</v>
       </c>
       <c r="L37" t="n">
-        <v>356.0349489141386</v>
+        <v>352.9306477293802</v>
       </c>
       <c r="M37" t="n">
         <v>388.7646858511287</v>
@@ -37484,7 +37484,7 @@
         <v>275.8552113392266</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.5059250757614</v>
+        <v>110.6102262605196</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>204.3852993976343</v>
       </c>
       <c r="Q39" t="n">
-        <v>404.7138173681388</v>
+        <v>404.7138173681392</v>
       </c>
       <c r="R39" t="n">
         <v>0.07680996660707251</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.39695709641166</v>
+        <v>57.29265591165331</v>
       </c>
       <c r="K40" t="n">
         <v>231.3340328425685</v>
@@ -37721,7 +37721,7 @@
         <v>275.8552113392266</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.505925075761</v>
+        <v>110.6102262605196</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.659078795787359</v>
       </c>
       <c r="J42" t="n">
-        <v>235.2669227304694</v>
+        <v>258.46552545578</v>
       </c>
       <c r="K42" t="n">
         <v>156.877450501464</v>
@@ -37879,10 +37879,10 @@
         <v>204.3852993976343</v>
       </c>
       <c r="Q42" t="n">
-        <v>431.571498889237</v>
+        <v>333.7000124624789</v>
       </c>
       <c r="R42" t="n">
-        <v>0.07680996660707251</v>
+        <v>71.09061487226755</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>60.39695709641166</v>
       </c>
       <c r="K43" t="n">
-        <v>231.3340328425685</v>
+        <v>228.2297316578101</v>
       </c>
       <c r="L43" t="n">
         <v>356.0349489141386</v>
@@ -37958,7 +37958,7 @@
         <v>275.8552113392266</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.5059250757614</v>
+        <v>110.6102262605196</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.659078795787352</v>
       </c>
       <c r="J45" t="n">
-        <v>258.46552545578</v>
+        <v>61.76351032474226</v>
       </c>
       <c r="K45" t="n">
-        <v>156.877450501464</v>
+        <v>326.7217841114037</v>
       </c>
       <c r="L45" t="n">
         <v>241.3548817263896</v>
@@ -38116,10 +38116,10 @@
         <v>204.3852993976342</v>
       </c>
       <c r="Q45" t="n">
-        <v>337.3590912582654</v>
+        <v>431.571498889237</v>
       </c>
       <c r="R45" t="n">
-        <v>71.09061487226754</v>
+        <v>0.0768099666070583</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,10 +38180,10 @@
         <v>231.3340328425684</v>
       </c>
       <c r="L46" t="n">
-        <v>356.0349489141385</v>
+        <v>352.9306477293798</v>
       </c>
       <c r="M46" t="n">
-        <v>385.6603846663695</v>
+        <v>388.7646858511287</v>
       </c>
       <c r="N46" t="n">
         <v>380.8617942338699</v>
